--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>测试方法名称</t>
   </si>
@@ -87,25 +87,28 @@
     <t>是</t>
   </si>
   <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>username=test01</t>
+  </si>
+  <si>
+    <t>password=newdream123</t>
+  </si>
+  <si>
+    <t>test_login_fail</t>
+  </si>
+  <si>
+    <t>验证错误的用户名和密码能否成功处理</t>
+  </si>
+  <si>
+    <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
+  </si>
+  <si>
+    <t>password=newdream</t>
+  </si>
+  <si>
     <t>测试人员1</t>
-  </si>
-  <si>
-    <t>username=test01</t>
-  </si>
-  <si>
-    <t>password=newdream123</t>
-  </si>
-  <si>
-    <t>test_login_fail</t>
-  </si>
-  <si>
-    <t>验证错误的用户名和密码能否成功处理</t>
-  </si>
-  <si>
-    <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
-  </si>
-  <si>
-    <t>password=newdream</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1266,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1375,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>

--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -117,9 +117,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,26 +144,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,24 +159,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +182,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,51 +230,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,19 +283,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,163 +445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,16 +505,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -559,180 +589,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1082,7 +1082,7 @@
     <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
     <col min="2" max="2" width="44.4910714285714" customWidth="1"/>
     <col min="3" max="4" width="22.3125" customWidth="1"/>
-    <col min="5" max="5" width="20.5357142857143" customWidth="1"/>
+    <col min="5" max="5" width="26.4821428571429" customWidth="1"/>
     <col min="6" max="6" width="22.3214285714286" customWidth="1"/>
     <col min="7" max="7" width="27.2232142857143" customWidth="1"/>
   </cols>
